--- a/日报与周报-叶家俊2018.08.04.xlsx
+++ b/日报与周报-叶家俊2018.08.04.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>时间</t>
   </si>
@@ -77,6 +77,42 @@
       </rPr>
       <t xml:space="preserve"> code update；Router代码修改，Esprotalapp代码联合调试。</t>
     </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中芯集成REF测试项测试；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中芯集成REF测试项测试；撰写测试报告；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中芯集成读写测试项测试；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>中芯集成读写测试项调试；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>实验室拆空调，协助与设备维护；</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>展会彩页修改；实验室拆空调，协助与设备维护；目前实验室的测试机由于没有空调，不能使用。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周主要是资料的学习查看，REF测试项的调试和前往中芯集成测试，记录测试结果。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>在目前测试机不能使用的情况下（八月下旬才搬办公室），更全面的测试可能都在中芯集成验证。</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>flash资料查看；</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -207,10 +243,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -547,7 +583,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -598,26 +634,38 @@
       <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
+      <c r="D2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
     </row>
@@ -626,11 +674,11 @@
       <c r="B4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
     </row>
@@ -639,13 +687,21 @@
       <c r="B5" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
     </row>
@@ -654,11 +710,11 @@
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
     </row>
@@ -667,11 +723,11 @@
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
     </row>
@@ -680,11 +736,11 @@
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
@@ -693,11 +749,11 @@
       <c r="B9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
     </row>
